--- a/diabetes/prevalence/Georgia.xlsx
+++ b/diabetes/prevalence/Georgia.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cdc.gov\project\CCHP_NCCD_DDT_Data1\epistat\KAK\Single map county data by state\DMPREV2013\compliance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlosabreu/Desktop/analise_de_midias/diabetes/prevalence/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D739840F-7830-734C-B210-955870734850}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11385"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25200" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_Georgia" sheetId="1" r:id="rId1"/>
@@ -17,12 +18,19 @@
   <definedNames>
     <definedName name="IDX" localSheetId="0">data_Georgia!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="338">
   <si>
     <t>Diagnosed Diabetes Prevalence</t>
   </si>
@@ -1013,11 +1021,35 @@
   <si>
     <t>Worth County</t>
   </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Número Total de casos</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Média (Lower)</t>
+  </si>
+  <si>
+    <t>Média(Upper</t>
+  </si>
+  <si>
+    <t>Numero de pessoas</t>
+  </si>
+  <si>
+    <t>Numero L</t>
+  </si>
+  <si>
+    <t>Numero H</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\_x0000_.0"/>
   </numFmts>
@@ -1728,7 +1760,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1781,6 +1813,9 @@
     <xf numFmtId="164" fontId="23" fillId="35" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1790,58 +1825,61 @@
     <xf numFmtId="0" fontId="21" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="20" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hiperlink" xfId="42" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Hiperlink Visitado" xfId="43" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2118,189 +2156,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:BU163"/>
+  <dimension ref="A2:CD163"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BR1" workbookViewId="0">
+      <selection activeCell="BW3" sqref="BW3:CD13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.1640625" style="1" customWidth="1"/>
     <col min="19" max="19" width="8" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.1640625" style="1" customWidth="1"/>
     <col min="26" max="26" width="8" style="1" customWidth="1"/>
-    <col min="27" max="27" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.1640625" style="1" customWidth="1"/>
     <col min="33" max="33" width="8" style="1" customWidth="1"/>
-    <col min="34" max="34" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.140625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8.1640625" style="1" customWidth="1"/>
     <col min="40" max="40" width="8" style="1" customWidth="1"/>
-    <col min="41" max="41" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.140625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.1640625" style="1" customWidth="1"/>
     <col min="47" max="47" width="8" style="1" customWidth="1"/>
-    <col min="48" max="48" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.140625" style="1" customWidth="1"/>
+    <col min="52" max="52" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="8.1640625" style="1" customWidth="1"/>
     <col min="54" max="54" width="8" style="1" customWidth="1"/>
-    <col min="55" max="55" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.140625" style="1" customWidth="1"/>
+    <col min="59" max="59" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.1640625" style="1" customWidth="1"/>
     <col min="61" max="61" width="8" style="1" customWidth="1"/>
-    <col min="62" max="62" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="8.140625" style="1" customWidth="1"/>
+    <col min="66" max="66" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="8.1640625" style="1" customWidth="1"/>
     <col min="68" max="68" width="8" style="1" customWidth="1"/>
-    <col min="69" max="69" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="16384" width="9.140625" style="1"/>
+    <col min="73" max="73" width="35.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:73" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:73" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+    <row r="2" spans="1:82" ht="12" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:82" ht="18" x14ac:dyDescent="0.15">
+      <c r="A3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="18">
+      <c r="D3" s="19">
         <v>2004</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="18">
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="19">
         <v>2005</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="18">
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="19">
         <v>2006</v>
       </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="18">
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="19">
         <v>2007</v>
       </c>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="18">
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="19">
         <v>2008</v>
       </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="18">
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="21"/>
+      <c r="AM3" s="19">
         <v>2009</v>
       </c>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AP3" s="19"/>
-      <c r="AQ3" s="19"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="20"/>
-      <c r="AT3" s="18">
+      <c r="AN3" s="20"/>
+      <c r="AO3" s="20"/>
+      <c r="AP3" s="20"/>
+      <c r="AQ3" s="20"/>
+      <c r="AR3" s="20"/>
+      <c r="AS3" s="21"/>
+      <c r="AT3" s="19">
         <v>2010</v>
       </c>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="20"/>
-      <c r="BA3" s="18">
+      <c r="AU3" s="20"/>
+      <c r="AV3" s="20"/>
+      <c r="AW3" s="20"/>
+      <c r="AX3" s="20"/>
+      <c r="AY3" s="20"/>
+      <c r="AZ3" s="21"/>
+      <c r="BA3" s="19">
         <v>2011</v>
       </c>
-      <c r="BB3" s="19"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="19"/>
-      <c r="BE3" s="19"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="20"/>
-      <c r="BH3" s="18">
+      <c r="BB3" s="20"/>
+      <c r="BC3" s="20"/>
+      <c r="BD3" s="20"/>
+      <c r="BE3" s="20"/>
+      <c r="BF3" s="20"/>
+      <c r="BG3" s="21"/>
+      <c r="BH3" s="19">
         <v>2012</v>
       </c>
-      <c r="BI3" s="19"/>
-      <c r="BJ3" s="19"/>
-      <c r="BK3" s="19"/>
-      <c r="BL3" s="19"/>
-      <c r="BM3" s="19"/>
-      <c r="BN3" s="20"/>
-      <c r="BO3" s="18">
+      <c r="BI3" s="20"/>
+      <c r="BJ3" s="20"/>
+      <c r="BK3" s="20"/>
+      <c r="BL3" s="20"/>
+      <c r="BM3" s="20"/>
+      <c r="BN3" s="21"/>
+      <c r="BO3" s="19">
         <v>2013</v>
       </c>
-      <c r="BP3" s="19"/>
-      <c r="BQ3" s="19"/>
-      <c r="BR3" s="19"/>
-      <c r="BS3" s="19"/>
-      <c r="BT3" s="19"/>
+      <c r="BP3" s="20"/>
+      <c r="BQ3" s="20"/>
+      <c r="BR3" s="20"/>
+      <c r="BS3" s="20"/>
+      <c r="BT3" s="20"/>
       <c r="BU3" s="22"/>
+      <c r="BW3" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>337</v>
+      </c>
     </row>
-    <row r="4" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -2520,8 +2584,39 @@
       <c r="BU4" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="BW4" s="1">
+        <v>2004</v>
+      </c>
+      <c r="BX4" s="18">
+        <f>SUM(D5:D300)</f>
+        <v>520880</v>
+      </c>
+      <c r="BY4" s="18">
+        <f>AVERAGE(E5:E300)</f>
+        <v>9.1176100628930818</v>
+      </c>
+      <c r="BZ4" s="18">
+        <f>AVERAGE(F5:F300)</f>
+        <v>7.1226415094339623</v>
+      </c>
+      <c r="CA4" s="18">
+        <f>AVERAGE(G5:G300)</f>
+        <v>11.549056603773586</v>
+      </c>
+      <c r="CB4" s="24">
+        <f>BX4*100/BY4</f>
+        <v>5712900.6001241636</v>
+      </c>
+      <c r="CC4" s="1">
+        <f>BZ4/100*CB4</f>
+        <v>406909.4295371456</v>
+      </c>
+      <c r="CD4" s="1">
+        <f>CA4/100*CB4</f>
+        <v>659786.12402566057</v>
+      </c>
     </row>
-    <row r="5" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>11</v>
       </c>
@@ -2741,8 +2836,39 @@
       <c r="BU5" s="11">
         <v>15.1</v>
       </c>
+      <c r="BW5" s="1">
+        <v>2005</v>
+      </c>
+      <c r="BX5" s="1">
+        <f>SUM(K5:K300)</f>
+        <v>572959</v>
+      </c>
+      <c r="BY5" s="18">
+        <f>AVERAGE(L5:L300)</f>
+        <v>9.9465408805031448</v>
+      </c>
+      <c r="BZ5" s="18">
+        <f>AVERAGE(M5:M300)</f>
+        <v>7.6773584905660339</v>
+      </c>
+      <c r="CA5" s="18">
+        <f>AVERAGE(N5:N300)</f>
+        <v>12.766037735849059</v>
+      </c>
+      <c r="CB5" s="24">
+        <f t="shared" ref="CB5:CB13" si="0">BX5*100/BY5</f>
+        <v>5760384.508378122</v>
+      </c>
+      <c r="CC5" s="1">
+        <f t="shared" ref="CC5:CC13" si="1">BZ5/100*CB5</f>
+        <v>442245.36914321827</v>
+      </c>
+      <c r="CD5" s="1">
+        <f t="shared" ref="CD5:CD13" si="2">CA5/100*CB5</f>
+        <v>735372.8600695543</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
         <v>11</v>
       </c>
@@ -2962,8 +3088,39 @@
       <c r="BU6" s="11">
         <v>14.2</v>
       </c>
+      <c r="BW6" s="1">
+        <v>2006</v>
+      </c>
+      <c r="BX6" s="18">
+        <f>SUM(R5:R300)</f>
+        <v>649612</v>
+      </c>
+      <c r="BY6" s="18">
+        <f>AVERAGE(S5:S300)</f>
+        <v>11.044025157232705</v>
+      </c>
+      <c r="BZ6" s="18">
+        <f>AVERAGE(T5:T300)</f>
+        <v>8.4477987421383656</v>
+      </c>
+      <c r="CA6" s="18">
+        <f>AVERAGE(U5:U300)</f>
+        <v>14.266037735849055</v>
+      </c>
+      <c r="CB6" s="24">
+        <f t="shared" si="0"/>
+        <v>5882022.0956719816</v>
+      </c>
+      <c r="CC6" s="1">
+        <f t="shared" si="1"/>
+        <v>496901.38861047837</v>
+      </c>
+      <c r="CD6" s="1">
+        <f t="shared" si="2"/>
+        <v>839131.49179954431</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -3183,8 +3340,39 @@
       <c r="BU7" s="11">
         <v>12.9</v>
       </c>
+      <c r="BW7" s="1">
+        <v>2007</v>
+      </c>
+      <c r="BX7" s="18">
+        <f>SUM(Y5:Y300)</f>
+        <v>692041.99999999988</v>
+      </c>
+      <c r="BY7" s="18">
+        <f>AVERAGE(Z5:Z300)</f>
+        <v>11.599371069182391</v>
+      </c>
+      <c r="BZ7" s="18">
+        <f>AVERAGE(AA5:AA300)</f>
+        <v>8.9352201257861665</v>
+      </c>
+      <c r="CA7" s="18">
+        <f>AVERAGE(AB5:AB300)</f>
+        <v>14.847169811320754</v>
+      </c>
+      <c r="CB7" s="24">
+        <f t="shared" si="0"/>
+        <v>5966202.7869652426</v>
+      </c>
+      <c r="CC7" s="1">
+        <f t="shared" si="1"/>
+        <v>533093.35216613358</v>
+      </c>
+      <c r="CD7" s="1">
+        <f t="shared" si="2"/>
+        <v>885812.25906848093</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
@@ -3404,8 +3592,39 @@
       <c r="BU8" s="11">
         <v>16.5</v>
       </c>
+      <c r="BW8" s="1">
+        <v>2008</v>
+      </c>
+      <c r="BX8" s="1">
+        <f>SUM(AF5:AF300)</f>
+        <v>717490.8</v>
+      </c>
+      <c r="BY8" s="18">
+        <f>AVERAGE(AG5:AG300)</f>
+        <v>11.709433962264157</v>
+      </c>
+      <c r="BZ8" s="18">
+        <f>AVERAGE(AH5:AH300)</f>
+        <v>9.061635220125785</v>
+      </c>
+      <c r="CA8" s="18">
+        <f>AVERAGE(AI5:AI300)</f>
+        <v>14.91949685534591</v>
+      </c>
+      <c r="CB8" s="24">
+        <f t="shared" si="0"/>
+        <v>6127459.2974540731</v>
+      </c>
+      <c r="CC8" s="1">
+        <f t="shared" si="1"/>
+        <v>555248.00979697029</v>
+      </c>
+      <c r="CD8" s="1">
+        <f t="shared" si="2"/>
+        <v>914186.09719626105</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
@@ -3625,8 +3844,39 @@
       <c r="BU9" s="11">
         <v>17</v>
       </c>
+      <c r="BW9" s="1">
+        <v>2009</v>
+      </c>
+      <c r="BX9" s="18">
+        <f>SUM(AM5:AM300)</f>
+        <v>711286</v>
+      </c>
+      <c r="BY9" s="18">
+        <f>AVERAGE(AN5:AN300)</f>
+        <v>11.801257861635222</v>
+      </c>
+      <c r="BZ9" s="18">
+        <f>AVERAGE(AO5:AO300)</f>
+        <v>9.1389937106918264</v>
+      </c>
+      <c r="CA9" s="18">
+        <f>AVERAGE(AP5:AP300)</f>
+        <v>14.913207547169815</v>
+      </c>
+      <c r="CB9" s="24">
+        <f t="shared" si="0"/>
+        <v>6027204.966958004</v>
+      </c>
+      <c r="CC9" s="1">
+        <f t="shared" si="1"/>
+        <v>550825.88286079746</v>
+      </c>
+      <c r="CD9" s="1">
+        <f t="shared" si="2"/>
+        <v>898849.5860157751</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>11</v>
       </c>
@@ -3846,8 +4096,39 @@
       <c r="BU10" s="11">
         <v>13.1</v>
       </c>
+      <c r="BW10" s="1">
+        <v>2010</v>
+      </c>
+      <c r="BX10" s="18">
+        <f>SUM(AT5:AT300)</f>
+        <v>726499</v>
+      </c>
+      <c r="BY10" s="18">
+        <f>AVERAGE(AU5:AU6300)</f>
+        <v>12.350943396226413</v>
+      </c>
+      <c r="BZ10" s="18">
+        <f>AVERAGE(AV5:AV6300)</f>
+        <v>9.5792452830188672</v>
+      </c>
+      <c r="CA10" s="18">
+        <f>AVERAGE(AW5:AW6300)</f>
+        <v>15.60691823899371</v>
+      </c>
+      <c r="CB10" s="24">
+        <f t="shared" si="0"/>
+        <v>5882133.6694164388</v>
+      </c>
+      <c r="CC10" s="1">
+        <f t="shared" si="1"/>
+        <v>563464.01206843881</v>
+      </c>
+      <c r="CD10" s="1">
+        <f t="shared" si="2"/>
+        <v>918019.79249414417</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
@@ -4067,8 +4348,39 @@
       <c r="BU11" s="11">
         <v>14.4</v>
       </c>
+      <c r="BW11" s="1">
+        <v>2011</v>
+      </c>
+      <c r="BX11" s="1">
+        <f>SUM(BA5:BA300)</f>
+        <v>740505</v>
+      </c>
+      <c r="BY11" s="18">
+        <f>AVERAGE(BB5:BB300)</f>
+        <v>12.428930817610063</v>
+      </c>
+      <c r="BZ11" s="18">
+        <f>AVERAGE(BC5:BC300)</f>
+        <v>9.5534591194968517</v>
+      </c>
+      <c r="CA11" s="18">
+        <f>AVERAGE(BD5:BD300)</f>
+        <v>15.808805031446541</v>
+      </c>
+      <c r="CB11" s="24">
+        <f t="shared" si="0"/>
+        <v>5957913.9257160211</v>
+      </c>
+      <c r="CC11" s="1">
+        <f t="shared" si="1"/>
+        <v>569186.87126809009</v>
+      </c>
+      <c r="CD11" s="1">
+        <f t="shared" si="2"/>
+        <v>941874.99645784847</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -4288,8 +4600,39 @@
       <c r="BU12" s="11">
         <v>14.4</v>
       </c>
+      <c r="BW12" s="1">
+        <v>2012</v>
+      </c>
+      <c r="BX12" s="18">
+        <f>SUM(BH5:BH300)</f>
+        <v>766077</v>
+      </c>
+      <c r="BY12" s="18">
+        <f>AVERAGE(BI5:BI300)</f>
+        <v>12.447169811320761</v>
+      </c>
+      <c r="BZ12" s="18">
+        <f>AVERAGE(BJ5:BJ300)</f>
+        <v>9.5924528301886856</v>
+      </c>
+      <c r="CA12" s="18">
+        <f>AVERAGE(BK5:BK300)</f>
+        <v>15.806918238993715</v>
+      </c>
+      <c r="CB12" s="24">
+        <f t="shared" si="0"/>
+        <v>6154628.0127330581</v>
+      </c>
+      <c r="CC12" s="1">
+        <f t="shared" si="1"/>
+        <v>590379.78899499786</v>
+      </c>
+      <c r="CD12" s="1">
+        <f t="shared" si="2"/>
+        <v>972857.01788691815</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
@@ -4509,8 +4852,39 @@
       <c r="BU13" s="11">
         <v>14.3</v>
       </c>
+      <c r="BW13" s="1">
+        <v>2013</v>
+      </c>
+      <c r="BX13" s="18">
+        <f>SUM(BO5:BO300)</f>
+        <v>796383</v>
+      </c>
+      <c r="BY13" s="18">
+        <f>AVERAGE(BP6:BP300)</f>
+        <v>12.685443037974684</v>
+      </c>
+      <c r="BZ13" s="18">
+        <f>AVERAGE(BQ6:BQ300)</f>
+        <v>9.6329113924050667</v>
+      </c>
+      <c r="CA13" s="18">
+        <f>AVERAGE(BR6:BR300)</f>
+        <v>16.258227848101274</v>
+      </c>
+      <c r="CB13" s="24">
+        <f t="shared" si="0"/>
+        <v>6277928.1544678938</v>
+      </c>
+      <c r="CC13" s="1">
+        <f t="shared" si="1"/>
+        <v>604747.2563987429</v>
+      </c>
+      <c r="CD13" s="1">
+        <f t="shared" si="2"/>
+        <v>1020679.8634934896</v>
+      </c>
     </row>
-    <row r="14" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -4731,7 +5105,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
@@ -4952,7 +5326,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="16" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:82" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>11</v>
       </c>
@@ -5173,7 +5547,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="17" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>11</v>
       </c>
@@ -5394,7 +5768,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="18" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>11</v>
       </c>
@@ -5615,7 +5989,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="19" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
@@ -5836,7 +6210,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="20" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>11</v>
       </c>
@@ -6057,7 +6431,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>11</v>
       </c>
@@ -6278,7 +6652,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="22" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>11</v>
       </c>
@@ -6499,7 +6873,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="23" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>11</v>
       </c>
@@ -6720,7 +7094,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="24" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="10" t="s">
         <v>11</v>
       </c>
@@ -6941,7 +7315,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="25" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>11</v>
       </c>
@@ -7162,7 +7536,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="26" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>11</v>
       </c>
@@ -7383,7 +7757,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="27" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>11</v>
       </c>
@@ -7604,7 +7978,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="28" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>11</v>
       </c>
@@ -7825,7 +8199,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="29" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>11</v>
       </c>
@@ -8046,7 +8420,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="30" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>11</v>
       </c>
@@ -8267,7 +8641,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="31" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>11</v>
       </c>
@@ -8488,7 +8862,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="32" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>11</v>
       </c>
@@ -8709,7 +9083,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>11</v>
       </c>
@@ -8930,7 +9304,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="34" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>11</v>
       </c>
@@ -9151,7 +9525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="10" t="s">
         <v>11</v>
       </c>
@@ -9372,7 +9746,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="36" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="10" t="s">
         <v>11</v>
       </c>
@@ -9593,7 +9967,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="37" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="10" t="s">
         <v>11</v>
       </c>
@@ -9814,7 +10188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="10" t="s">
         <v>11</v>
       </c>
@@ -10035,7 +10409,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="39" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>11</v>
       </c>
@@ -10256,7 +10630,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="40" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
         <v>11</v>
       </c>
@@ -10477,7 +10851,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="41" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>11</v>
       </c>
@@ -10698,7 +11072,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="42" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>11</v>
       </c>
@@ -10919,7 +11293,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="43" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="10" t="s">
         <v>11</v>
       </c>
@@ -11140,7 +11514,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="44" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="10" t="s">
         <v>11</v>
       </c>
@@ -11361,7 +11735,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="10" t="s">
         <v>11</v>
       </c>
@@ -11582,7 +11956,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="46" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="10" t="s">
         <v>11</v>
       </c>
@@ -11803,7 +12177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="10" t="s">
         <v>11</v>
       </c>
@@ -12024,7 +12398,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="48" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="10" t="s">
         <v>11</v>
       </c>
@@ -12245,7 +12619,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="49" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
         <v>11</v>
       </c>
@@ -12466,7 +12840,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="50" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="10" t="s">
         <v>11</v>
       </c>
@@ -12687,7 +13061,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="51" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
         <v>11</v>
       </c>
@@ -12908,7 +13282,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="52" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>11</v>
       </c>
@@ -13129,7 +13503,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="53" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
         <v>11</v>
       </c>
@@ -13350,7 +13724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>11</v>
       </c>
@@ -13571,7 +13945,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="55" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
         <v>11</v>
       </c>
@@ -13792,7 +14166,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="56" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>11</v>
       </c>
@@ -14013,7 +14387,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="57" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="10" t="s">
         <v>11</v>
       </c>
@@ -14234,7 +14608,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="58" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>11</v>
       </c>
@@ -14455,7 +14829,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="59" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
         <v>11</v>
       </c>
@@ -14676,7 +15050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
         <v>11</v>
       </c>
@@ -14897,7 +15271,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="61" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
         <v>11</v>
       </c>
@@ -15118,7 +15492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
         <v>11</v>
       </c>
@@ -15339,7 +15713,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="63" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
         <v>11</v>
       </c>
@@ -15560,7 +15934,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="64" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="10" t="s">
         <v>11</v>
       </c>
@@ -15781,7 +16155,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="65" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="10" t="s">
         <v>11</v>
       </c>
@@ -16002,7 +16376,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="66" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="10" t="s">
         <v>11</v>
       </c>
@@ -16223,7 +16597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="10" t="s">
         <v>11</v>
       </c>
@@ -16444,7 +16818,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="68" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="10" t="s">
         <v>11</v>
       </c>
@@ -16665,7 +17039,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="69" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="10" t="s">
         <v>11</v>
       </c>
@@ -16886,7 +17260,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="70" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="10" t="s">
         <v>11</v>
       </c>
@@ -17107,7 +17481,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="71" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="10" t="s">
         <v>11</v>
       </c>
@@ -17328,7 +17702,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="72" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="10" t="s">
         <v>11</v>
       </c>
@@ -17549,7 +17923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="10" t="s">
         <v>11</v>
       </c>
@@ -17770,7 +18144,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="74" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="10" t="s">
         <v>11</v>
       </c>
@@ -17991,7 +18365,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="10" t="s">
         <v>11</v>
       </c>
@@ -18212,7 +18586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="10" t="s">
         <v>11</v>
       </c>
@@ -18433,7 +18807,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="77" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="10" t="s">
         <v>11</v>
       </c>
@@ -18654,7 +19028,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="78" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="10" t="s">
         <v>11</v>
       </c>
@@ -18875,7 +19249,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="79" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="10" t="s">
         <v>11</v>
       </c>
@@ -19096,7 +19470,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="80" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="10" t="s">
         <v>11</v>
       </c>
@@ -19317,7 +19691,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="81" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="10" t="s">
         <v>11</v>
       </c>
@@ -19538,7 +19912,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="82" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="10" t="s">
         <v>11</v>
       </c>
@@ -19759,7 +20133,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="83" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="10" t="s">
         <v>11</v>
       </c>
@@ -19980,7 +20354,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="84" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A84" s="10" t="s">
         <v>11</v>
       </c>
@@ -20201,7 +20575,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="85" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="10" t="s">
         <v>11</v>
       </c>
@@ -20422,7 +20796,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="86" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="10" t="s">
         <v>11</v>
       </c>
@@ -20643,7 +21017,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="87" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A87" s="10" t="s">
         <v>11</v>
       </c>
@@ -20864,7 +21238,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="88" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="10" t="s">
         <v>11</v>
       </c>
@@ -21085,7 +21459,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="89" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="10" t="s">
         <v>11</v>
       </c>
@@ -21306,7 +21680,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="90" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="10" t="s">
         <v>11</v>
       </c>
@@ -21527,7 +21901,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="91" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="10" t="s">
         <v>11</v>
       </c>
@@ -21748,7 +22122,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="92" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="10" t="s">
         <v>11</v>
       </c>
@@ -21969,7 +22343,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="93" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A93" s="10" t="s">
         <v>11</v>
       </c>
@@ -22190,7 +22564,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="94" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A94" s="10" t="s">
         <v>11</v>
       </c>
@@ -22411,7 +22785,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="95" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A95" s="10" t="s">
         <v>11</v>
       </c>
@@ -22632,7 +23006,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="96" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="10" t="s">
         <v>11</v>
       </c>
@@ -22853,7 +23227,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="97" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A97" s="10" t="s">
         <v>11</v>
       </c>
@@ -23074,7 +23448,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="98" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A98" s="10" t="s">
         <v>11</v>
       </c>
@@ -23295,7 +23669,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="99" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="10" t="s">
         <v>11</v>
       </c>
@@ -23516,7 +23890,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="100" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A100" s="10" t="s">
         <v>11</v>
       </c>
@@ -23737,7 +24111,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="101" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A101" s="10" t="s">
         <v>11</v>
       </c>
@@ -23958,7 +24332,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A102" s="10" t="s">
         <v>11</v>
       </c>
@@ -24179,7 +24553,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="103" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A103" s="10" t="s">
         <v>11</v>
       </c>
@@ -24400,7 +24774,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A104" s="10" t="s">
         <v>11</v>
       </c>
@@ -24621,7 +24995,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="105" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A105" s="10" t="s">
         <v>11</v>
       </c>
@@ -24842,7 +25216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A106" s="10" t="s">
         <v>11</v>
       </c>
@@ -25063,7 +25437,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="107" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A107" s="10" t="s">
         <v>11</v>
       </c>
@@ -25284,7 +25658,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="108" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A108" s="10" t="s">
         <v>11</v>
       </c>
@@ -25505,7 +25879,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="109" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A109" s="10" t="s">
         <v>11</v>
       </c>
@@ -25726,7 +26100,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="110" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A110" s="10" t="s">
         <v>11</v>
       </c>
@@ -25947,7 +26321,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="111" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A111" s="10" t="s">
         <v>11</v>
       </c>
@@ -26168,7 +26542,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="112" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A112" s="10" t="s">
         <v>11</v>
       </c>
@@ -26389,7 +26763,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="113" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A113" s="10" t="s">
         <v>11</v>
       </c>
@@ -26610,7 +26984,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="114" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A114" s="10" t="s">
         <v>11</v>
       </c>
@@ -26831,7 +27205,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="115" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A115" s="10" t="s">
         <v>11</v>
       </c>
@@ -27052,7 +27426,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="116" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A116" s="10" t="s">
         <v>11</v>
       </c>
@@ -27273,7 +27647,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="117" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A117" s="10" t="s">
         <v>11</v>
       </c>
@@ -27494,7 +27868,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="118" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A118" s="10" t="s">
         <v>11</v>
       </c>
@@ -27715,7 +28089,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="119" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A119" s="10" t="s">
         <v>11</v>
       </c>
@@ -27936,7 +28310,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="120" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A120" s="10" t="s">
         <v>11</v>
       </c>
@@ -28157,7 +28531,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="121" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A121" s="10" t="s">
         <v>11</v>
       </c>
@@ -28378,7 +28752,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="122" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A122" s="10" t="s">
         <v>11</v>
       </c>
@@ -28599,7 +28973,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="123" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A123" s="10" t="s">
         <v>11</v>
       </c>
@@ -28820,7 +29194,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="124" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A124" s="10" t="s">
         <v>11</v>
       </c>
@@ -29041,7 +29415,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A125" s="10" t="s">
         <v>11</v>
       </c>
@@ -29262,7 +29636,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="126" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A126" s="10" t="s">
         <v>11</v>
       </c>
@@ -29483,7 +29857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A127" s="10" t="s">
         <v>11</v>
       </c>
@@ -29704,7 +30078,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="128" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A128" s="10" t="s">
         <v>11</v>
       </c>
@@ -29925,7 +30299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A129" s="10" t="s">
         <v>11</v>
       </c>
@@ -30146,7 +30520,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="130" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A130" s="10" t="s">
         <v>11</v>
       </c>
@@ -30367,7 +30741,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="131" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A131" s="10" t="s">
         <v>11</v>
       </c>
@@ -30588,7 +30962,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="132" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A132" s="10" t="s">
         <v>11</v>
       </c>
@@ -30809,7 +31183,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A133" s="10" t="s">
         <v>11</v>
       </c>
@@ -31030,7 +31404,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="134" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A134" s="10" t="s">
         <v>11</v>
       </c>
@@ -31251,7 +31625,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="135" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A135" s="10" t="s">
         <v>11</v>
       </c>
@@ -31472,7 +31846,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="136" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A136" s="10" t="s">
         <v>11</v>
       </c>
@@ -31693,7 +32067,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="137" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A137" s="10" t="s">
         <v>11</v>
       </c>
@@ -31914,7 +32288,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="138" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A138" s="10" t="s">
         <v>11</v>
       </c>
@@ -32135,7 +32509,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="139" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A139" s="10" t="s">
         <v>11</v>
       </c>
@@ -32356,7 +32730,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A140" s="10" t="s">
         <v>11</v>
       </c>
@@ -32577,7 +32951,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="141" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A141" s="10" t="s">
         <v>11</v>
       </c>
@@ -32798,7 +33172,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="142" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A142" s="10" t="s">
         <v>11</v>
       </c>
@@ -33019,7 +33393,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="143" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A143" s="10" t="s">
         <v>11</v>
       </c>
@@ -33240,7 +33614,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="144" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A144" s="10" t="s">
         <v>11</v>
       </c>
@@ -33461,7 +33835,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="145" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A145" s="10" t="s">
         <v>11</v>
       </c>
@@ -33682,7 +34056,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="146" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A146" s="10" t="s">
         <v>11</v>
       </c>
@@ -33903,7 +34277,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="147" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A147" s="10" t="s">
         <v>11</v>
       </c>
@@ -34124,7 +34498,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="148" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A148" s="10" t="s">
         <v>11</v>
       </c>
@@ -34345,7 +34719,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="149" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A149" s="10" t="s">
         <v>11</v>
       </c>
@@ -34566,7 +34940,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="150" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A150" s="10" t="s">
         <v>11</v>
       </c>
@@ -34787,7 +35161,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="151" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A151" s="10" t="s">
         <v>11</v>
       </c>
@@ -35008,7 +35382,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="152" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A152" s="10" t="s">
         <v>11</v>
       </c>
@@ -35229,7 +35603,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="153" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A153" s="10" t="s">
         <v>11</v>
       </c>
@@ -35450,7 +35824,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A154" s="10" t="s">
         <v>11</v>
       </c>
@@ -35671,7 +36045,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="155" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A155" s="10" t="s">
         <v>11</v>
       </c>
@@ -35892,7 +36266,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="156" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A156" s="10" t="s">
         <v>11</v>
       </c>
@@ -36113,7 +36487,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="157" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A157" s="10" t="s">
         <v>11</v>
       </c>
@@ -36334,7 +36708,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="158" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A158" s="10" t="s">
         <v>11</v>
       </c>
@@ -36555,7 +36929,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="159" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A159" s="10" t="s">
         <v>11</v>
       </c>
@@ -36776,7 +37150,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="160" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A160" s="10" t="s">
         <v>11</v>
       </c>
@@ -36997,7 +37371,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="161" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A161" s="10" t="s">
         <v>11</v>
       </c>
@@ -37218,7 +37592,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="162" spans="1:73" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:73" ht="14" x14ac:dyDescent="0.15">
       <c r="A162" s="10" t="s">
         <v>11</v>
       </c>
@@ -37439,7 +37813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:73" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:73" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A163" s="12" t="s">
         <v>11</v>
       </c>
@@ -37662,17 +38036,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="AT3:AZ3"/>
-    <mergeCell ref="BA3:BG3"/>
-    <mergeCell ref="BH3:BN3"/>
-    <mergeCell ref="BO3:BU3"/>
     <mergeCell ref="AF3:AL3"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="K3:Q3"/>
     <mergeCell ref="R3:X3"/>
     <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AM3:AS3"/>
+    <mergeCell ref="AT3:AZ3"/>
+    <mergeCell ref="BA3:BG3"/>
+    <mergeCell ref="BH3:BN3"/>
+    <mergeCell ref="BO3:BU3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
